--- a/upload/orders/import_order.xlsx
+++ b/upload/orders/import_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\touch08\Downloads\MKI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78258160-1262-4683-929D-2BC623ABC508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A20025-5413-4212-863A-724665701D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55D9B6B3-F8B3-4AE5-AC23-422FC6D2268E}"/>
   </bookViews>
@@ -35,8 +35,175 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TOUCH08 -</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A140EC02-8FAB-46F0-BB6E-935EF90DE8AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">เลขที่ออเดอร์ในระบบ Marketplace
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A57AD8B4-C561-4C08-BBD3-63F7B9E963E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>รหัสลูกค้าในระบบ Flex</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DE77C8D0-0A43-40CC-8C3C-108E8753FC7E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">วันที่ออเดอร์ ตาม format 
+yyyy-mm-dd
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{36A20C06-37E0-490C-A5E5-9F4A1E9E67A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>รหัสช่องทางขายในระบบ flex</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5F019A00-B889-4168-9331-3444BA00352D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">รหัสช่องทางการชำระเงินในระบบ flex
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F0C84101-C813-4566-A002-591CCD65AA64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>รหัสสินค้าในระบบ flex</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{09ADBE80-F033-4412-BE0C-DF27BB33EA34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>จำนวนขาย</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A441EE12-74E9-4E3F-94EA-B48CE87B66DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ราคาขาย ต่อชิ้น ก่อนส่วนลด</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{31142851-6964-4E3F-A472-1BDD2E7584A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ค่าจัดส่ง ถ้าไม่มีใส่ 0
+ระบบจะนับเฉพาะบรรทัดแรกของออเดอร์เท่านั้น</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{46E63088-A1F8-4B6A-95DE-08DB4DBF5750}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ค่าบริการอื่นๆ ถ้าไม่มีใส่ 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{06C807D5-05B8-48E1-9C04-B9E329AA645C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ระบุเป็น 1 ถ้าต้องการ update รายการของออเดอร์นี้ที่เคย import เข้าไปก่อนหน้านี้ ระบบจะทำการลบรายการเก่าและสร้างใหม่ด้วยเลขที่เดิม 
+แต่จะทำได้เฉพาะออเดอร์ที่สถานะ ไม่เกินรอจัดสินค้าเท่านั้น</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -77,49 +244,113 @@
     <t>580016627924896408</t>
   </si>
   <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>2025-03-04</t>
   </si>
   <si>
     <t>G16</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>FGMK3115</t>
-  </si>
-  <si>
     <t>2025-03-05</t>
   </si>
   <si>
-    <t>FGEX0065</t>
-  </si>
-  <si>
-    <t>FGEX0063</t>
-  </si>
-  <si>
     <t>580016643749873749</t>
+  </si>
+  <si>
+    <t>Recipient</t>
+  </si>
+  <si>
+    <t>นาย ศตคุณ ศรีตระกูล</t>
+  </si>
+  <si>
+    <t>พรประภา คำถา</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>ร้านปลายข้าว Ran Plaikhao,  ตำบล ผาบ่อง อำเภอเมืองแม่ฮ่องสอน</t>
+  </si>
+  <si>
+    <t>เมืองแม่ฮ่องสอน</t>
+  </si>
+  <si>
+    <t>แม่ฮ่องสอน</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>(+66)0951413222</t>
+  </si>
+  <si>
+    <t>10 ซอย รามอินทรา 86 แยก 6, เขตมีนบุรี</t>
+  </si>
+  <si>
+    <t>มีนบุรี</t>
+  </si>
+  <si>
+    <t>กรุงเทพฯ</t>
+  </si>
+  <si>
+    <t>10510</t>
+  </si>
+  <si>
+    <t>(+66)0924491550</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>12/3 ม.1 ต.ผาบ่อง อ.เมือง จังหวัดแม่ฮ่องสอน</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>MKI038</t>
+  </si>
+  <si>
+    <t>FGFS006</t>
+  </si>
+  <si>
+    <t>FGRT013</t>
+  </si>
+  <si>
+    <t>FGPK004</t>
+  </si>
+  <si>
+    <t>FGFS004</t>
+  </si>
+  <si>
+    <t>FGRT011</t>
+  </si>
+  <si>
+    <t>F0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF393939"/>
-      <name val="Open Sans"/>
     </font>
     <font>
       <sz val="9"/>
@@ -131,6 +362,38 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF393939"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,15 +416,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,11 +760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF6F8E-D044-40F7-A7AE-3FC2A261B1DF}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EF6F8E-D044-40F7-A7AE-3FC2A261B1DF}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +779,14 @@
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="16" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,25 +823,49 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -591,25 +885,46 @@
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -620,25 +935,46 @@
       <c r="I3">
         <v>200</v>
       </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
+      <c r="E4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -649,25 +985,46 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -684,25 +1041,43 @@
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -710,9 +1085,28 @@
       <c r="H6">
         <v>150</v>
       </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>